--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\Done\5-Elementalist\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\5-Elementalist\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>[[Area of effect: - Circle whit 2 cells radius ]] (Elemental Glyph)</t>
   </si>
   <si>
-    <t>[[Number of turns between two casts: 5  ]]</t>
-  </si>
-  <si>
     <t>Pillar: Effect name: ''Neutral''.</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Teleport the caster at the targeted cell.</t>
+  </si>
+  <si>
+    <t>[[Number of turns between two casts: 5 ]]</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
     <row r="5" spans="2:4" ht="156" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -931,7 +931,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -955,14 +955,14 @@
     <row r="18" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1021,7 +1021,7 @@
     <row r="30" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1052,7 +1052,7 @@
     <row r="35" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1083,7 +1083,7 @@
     <row r="40" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1114,7 +1114,7 @@
     <row r="45" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1178,21 +1178,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1230,14 +1230,14 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1261,28 +1261,28 @@
     <row r="20" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1350,7 +1350,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1362,14 +1362,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1381,14 +1381,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1400,7 +1400,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1412,7 +1412,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1424,7 +1424,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1436,14 +1436,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1473,7 +1473,7 @@
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1513,7 +1513,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1525,14 +1525,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1544,14 +1544,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1563,7 +1563,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1575,7 +1575,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1587,7 +1587,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1599,14 +1599,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1636,7 +1636,7 @@
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1676,7 +1676,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1688,7 +1688,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1700,21 +1700,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1726,7 +1726,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1738,7 +1738,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1750,7 +1750,7 @@
     <row r="15" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1762,14 +1762,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1837,7 +1837,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1849,7 +1849,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1861,7 +1861,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1894,7 +1894,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1906,7 +1906,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1930,7 +1930,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1998,7 +1998,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2010,7 +2010,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2022,7 +2022,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2036,7 +2036,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2074,7 +2074,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2086,7 +2086,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2098,7 +2098,7 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2166,7 +2166,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2178,7 +2178,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2197,14 +2197,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2216,7 +2216,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2228,7 +2228,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2240,7 +2240,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2252,7 +2252,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2320,7 +2320,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2332,7 +2332,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2344,21 +2344,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2377,7 +2377,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2396,14 +2396,14 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2415,7 +2415,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2426,24 +2426,24 @@
     </row>
     <row r="20" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -2473,7 +2473,7 @@
     <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -2513,7 +2513,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2525,7 +2525,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2537,14 +2537,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2563,7 +2563,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2582,14 +2582,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2601,7 +2601,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2613,35 +2613,35 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -2671,28 +2671,28 @@
     <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>[[Cast in straight line: Yes ]]</t>
   </si>
   <si>
-    <t>Summons an unmovable Pillar on an empty cell that need to be hit whit the Elementalist skills to set his element states.                                                                 The pillar replicate the Elementalist skills and convert the element-type into the pillar type when hit and give elemental effect to damaged entity.                                                                            The caster is not affected by the replication of the skills.                                                                The glyph under the Pillar give elemental effect used by other Elementalist skills.</t>
-  </si>
-  <si>
     <t>Inflicts Earth-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>[[Number of turns between two casts: 5 ]]</t>
+  </si>
+  <si>
+    <t>Summons an unmovable ''Pillar'' on an empty cell that need to be hit whit the Elementalist skills to set his element states.                                                                 The pillar replicate the Elementalist skills and convert the element-type into the pillar type when hit and give elemental effect to damaged entity.                                                                            The caster is not affected by the replication of the skills.                                                                The glyph under the Pillar give elemental effect used by other Elementalist skills.</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
     <row r="5" spans="2:4" ht="156" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -931,7 +931,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1021,7 +1021,7 @@
     <row r="30" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1052,7 +1052,7 @@
     <row r="35" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1083,7 +1083,7 @@
     <row r="40" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1"/>
       <c r="C40" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1114,7 +1114,7 @@
     <row r="45" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1"/>
       <c r="C45" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1"/>
     </row>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1154,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1192,7 +1192,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1237,7 +1237,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1261,28 +1261,28 @@
     <row r="20" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1688,7 +1688,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1849,7 +1849,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1998,7 +1998,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2010,7 +2010,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2036,7 +2036,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2074,7 +2074,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2086,7 +2086,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2098,7 +2098,7 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2166,7 +2166,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2178,7 +2178,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2228,7 +2228,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2240,7 +2240,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2252,7 +2252,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2320,7 +2320,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2332,7 +2332,7 @@
     <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2344,21 +2344,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2377,7 +2377,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2396,14 +2396,14 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2415,7 +2415,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2426,24 +2426,24 @@
     </row>
     <row r="20" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -2473,7 +2473,7 @@
     <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -2513,7 +2513,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2525,7 +2525,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2537,14 +2537,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2563,7 +2563,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2582,14 +2582,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2601,7 +2601,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2613,35 +2613,35 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -2671,28 +2671,28 @@
     <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>[[MP: 0 ]]</t>
   </si>
@@ -50,24 +50,6 @@
     <t>Water Pillar</t>
   </si>
   <si>
-    <t>Earth Pillar</t>
-  </si>
-  <si>
-    <t>Air Pillar</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[0% earth resistence, -50% fire resistence, 100% water resistence, 0% air resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[100% earth resistence, 0% fire resistence, 100% water resistence, -50% air resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[0% earth resistence, 100% fire resistence, -50% water resistence, 0% air resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[-50% earth resistence, 0% fire resistence, 0% water resistence, 100% air resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
     <t>[[AP: 5 ]]</t>
   </si>
   <si>
@@ -86,9 +68,6 @@
     <t>[[Area of effect: - Circle whit 2 cells radius ]] (Elemental Glyph)</t>
   </si>
   <si>
-    <t>Pillar: Effect name: ''Neutral''.</t>
-  </si>
-  <si>
     <t>[[Area of effect: - On each line at 2 and 4 cell of range ]]</t>
   </si>
   <si>
@@ -107,9 +86,6 @@
     <t>Corrosive Rain</t>
   </si>
   <si>
-    <t>Effect name: ''Corrosive Rain''.</t>
-  </si>
-  <si>
     <t>Wind Wave</t>
   </si>
   <si>
@@ -122,24 +98,9 @@
     <t>[[Number of casts per turn: 1 ]]</t>
   </si>
   <si>
-    <t>[[Damage:  20-30 water ]]</t>
-  </si>
-  <si>
-    <t>[[Damage:  25-35 air ]]</t>
-  </si>
-  <si>
-    <t>Effect name: ''Wind Wave''.</t>
-  </si>
-  <si>
-    <t>[[Reduce dealt damage by 5%]] (1 turn)</t>
-  </si>
-  <si>
     <t>Inflicts Air-type damage and reduces the</t>
   </si>
   <si>
-    <t>[[Reduce resistance by 3%]] (1 turn)</t>
-  </si>
-  <si>
     <t>dealt damage in the area of effect.</t>
   </si>
   <si>
@@ -155,18 +116,9 @@
     <t>[[Area of effect: - On each diagonal line at 1 and 2 diagonal cells of range ]]</t>
   </si>
   <si>
-    <t>Summons a ''Stalagmite'' [[5% summoner HP, 0 AP, 0 MP, 75% earth resistence, 75% fire resistence, -25% water resistence, 75% air resistence, 50% light resistence, 50% dark resistence]] (1 turn)</t>
-  </si>
-  <si>
     <t>[[MP: 1 ]]</t>
   </si>
   <si>
-    <t>[[Damage:  25-35 earh ]]</t>
-  </si>
-  <si>
-    <t>Summons a ''Pillar'' [[50% summoner HP, 0 AP, 0 MP, 0% earth resistence, 0% fire resistence, 0% water resistence, 0% air resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
     <t>Fire Beam</t>
   </si>
   <si>
@@ -179,9 +131,6 @@
     <t>[[Cast in straight line: Yes ]]</t>
   </si>
   <si>
-    <t>Inflicts Earth-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
-  </si>
-  <si>
     <t>Inflicts Fire-type damage in a modular area of effect.                      All the cells between the targetted cell and the caster are part of the area of effect.                                                                                   The farthest it's used, the less damage is dealt.</t>
   </si>
   <si>
@@ -194,9 +143,6 @@
     <t>[[Area of effect: - Single cell]]</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Teleports to the targeted cell.</t>
   </si>
   <si>
@@ -206,9 +152,6 @@
     <t>Magic Barrier</t>
   </si>
   <si>
-    <t>[[Number of turns between two casts: 6 ]]</t>
-  </si>
-  <si>
     <t>[[Area of effect: - Hollow square of 2 cells radius]]</t>
   </si>
   <si>
@@ -239,33 +182,12 @@
     <t>Elemental Immunity</t>
   </si>
   <si>
-    <t>Effect name: ''Elemental Immunity''.</t>
-  </si>
-  <si>
-    <t>Glyph (1 turn)</t>
-  </si>
-  <si>
-    <t>Other target: Immunity from the Elementalist skills and his "Pillar" (1 turn)</t>
-  </si>
-  <si>
-    <t>Self targeting: [[Boost water, air, earth and fire resistance by 50%]]    (1 turn)</t>
-  </si>
-  <si>
-    <t>Self targeting:  [[Reduce dark and light resistance by 100%]]          (1 turn)</t>
-  </si>
-  <si>
     <t>Elemental Backfire</t>
   </si>
   <si>
     <t>[[Area of effect: - Single cell ]]</t>
   </si>
   <si>
-    <t xml:space="preserve">20% chance: [[ - ]] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">increase an random element effect of an entity dealing damage to the target of this skill.  </t>
-  </si>
-  <si>
     <t>[[AP: 2 ]]</t>
   </si>
   <si>
@@ -278,57 +200,6 @@
     <t>[[Number of cast per turn per target: 1 ]]</t>
   </si>
   <si>
-    <t>Effect name: ''Water'' (inactive). [[Max effect accumulation: 5 ]]        (00 turns)</t>
-  </si>
-  <si>
-    <t>Effect name: ''Earth'' (inactive). [[Max effect accumulation: 5 ]]       (00 turns)</t>
-  </si>
-  <si>
-    <t>Effect name: ''Fire'' (inactive). [[Max effect accumulation: 5 ]]          (00 turns)</t>
-  </si>
-  <si>
-    <t>Effect name: ''Air'' (inactive). [[Max effect accumulation: 5 ]]           (00 turns)</t>
-  </si>
-  <si>
-    <t>20% chance: [[ +1 ''Water'' (inactive) effect ]] (00 turns)</t>
-  </si>
-  <si>
-    <t>20% chance: [[ +1 ''Earth'' (inactive) effect ]] (00 turns)</t>
-  </si>
-  <si>
-    <t>20% chance: [[ +1 ''Fire'' (inactive) effect ]] (00 turns)</t>
-  </si>
-  <si>
-    <t>20% chance: [[ +1 ''Air'' (inactive) effect ]] (00 turns)</t>
-  </si>
-  <si>
-    <t>Effect name: ''Water'' (inactive). [[Max effect accumulation: 5 ]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect name: ''Earth'' (inactive).  [[Max effect accumulation: 5 ]] </t>
-  </si>
-  <si>
-    <t>Effect name: ''Fire'' (inactive).    [[Max effect accumulation: 5 ]]</t>
-  </si>
-  <si>
-    <t>Effect name: ''Air'' (inactive).      [[Max effect accumulation: 5 ]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active all the elements effects of the target. </t>
-  </si>
-  <si>
-    <t>'Water'' (active) effect: [[ -1 AP * (''Water'' (inactive) effect lvl) ]]         (1 turn)</t>
-  </si>
-  <si>
-    <t>'Earth'' (active) effect: [[ -1 MP * (''Earth'' (inactive) effect lvl) ]]          (1 turn)</t>
-  </si>
-  <si>
-    <t>'Fire'' (active) effect: [[ +10% Taken Damage * (''Fire'' (inactive) effect lvl) ]] (1 turn)</t>
-  </si>
-  <si>
-    <t>'Air'' (active) effect: [[ -1 Range * (''Air'' (inactive) effect lvl) ]]</t>
-  </si>
-  <si>
     <t>Teleport the caster at the targeted cell.</t>
   </si>
   <si>
@@ -336,13 +207,454 @@
   </si>
   <si>
     <t>Summons an unmovable ''Pillar'' on an empty cell that need to be hit whit the Elementalist skills to set his element states.                                                                 The pillar replicate the Elementalist skills and convert the element-type into the pillar type when hit and give elemental effect to damaged entity.                                                                            The caster is not affected by the replication of the skills.                                                                The glyph under the Pillar give elemental effect used by other Elementalist skills.</t>
+  </si>
+  <si>
+    <t>Summons a ''Pillar'' [[50% summoner HP, 0 AP, 0 MP, 0% ground resistence, 0% fire resistence, 0% water resistence, 0% wind resistence, 50% light resistence, 50% dark resistence]]</t>
+  </si>
+  <si>
+    <t>Ground Pillar</t>
+  </si>
+  <si>
+    <t>Wind Pillar</t>
+  </si>
+  <si>
+    <t>Pillar resistance: [[-50% ground resistence, 0% fire resistence,      0% water resistence, 100% wind resistence, 50% light resistence, 50% dark resistence]]</t>
+  </si>
+  <si>
+    <t>Pillar resistance: [[0% ground resistence, 100% fire resistence,         -50% water resistence, 0% wind resistence, 50% light resistence, 50% dark resistence]]</t>
+  </si>
+  <si>
+    <t>Pillar resistance: [[0% ground resistence, -50% fire resistence,    100% water resistence, 0% wind resistence, 50% light resistence, 50% dark resistence]]</t>
+  </si>
+  <si>
+    <t>Pillar resistance: [[100% ground resistence, 0% fire resistence,   100% water resistence, -50% wind resistence, 50% light resistence, 50% dark resistence]]</t>
+  </si>
+  <si>
+    <t>[[Damage: 20-30 water ]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Vulnerable]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+3 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Ground]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Wind]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Fire]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Water]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Damage: 25-35 air ]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Strengthless]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +10 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inflicts Ground-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
+  </si>
+  <si>
+    <t>[[Damage:  25-35 ground ]]</t>
+  </si>
+  <si>
+    <t>Summons a ''Stalagmite'' [[5% summoner HP, 0 AP, 0 MP,             75% ground resistence, 75% fire resistence, -25% water resistence, 75% wind resistence, 50% light resistence, 50% dark resistence]]   (1 turn)</t>
+  </si>
+  <si>
+    <t>'Magic Barrier'' (Unwalkable Glyph) (1 turn)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Self targeting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Natural Resistance]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +50 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other target: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Elemental Protection]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase an random element effect of an entity dealing damage to the target of this skill.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Elemental Backfire]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consume all the elements effects of the target. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Water]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Ground]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Fire]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Wind]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Laziness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Water]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Slowness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Ground]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Blindness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Wind]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[[Damage: 20 * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Fire]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) fire]]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +686,24 @@
       <name val="Algerian"/>
       <family val="5"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -401,7 +731,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -459,11 +789,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -522,7 +863,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -839,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D46"/>
+  <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +1221,7 @@
     <row r="5" spans="2:4" ht="156" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -886,14 +1233,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -905,21 +1252,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -931,7 +1278,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -943,7 +1290,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -952,57 +1299,59 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1014,14 +1363,14 @@
     <row r="29" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="11" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
-      <c r="C30" s="11" t="s">
-        <v>81</v>
+      <c r="C30" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1033,7 +1382,7 @@
     <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -1045,14 +1394,14 @@
     <row r="34" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
-      <c r="C35" s="11" t="s">
-        <v>82</v>
+      <c r="C35" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1064,7 +1413,7 @@
     <row r="37" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
       <c r="C37" s="5" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -1076,14 +1425,14 @@
     <row r="39" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
-      <c r="C40" s="11" t="s">
-        <v>83</v>
+      <c r="C40" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1092,36 +1441,33 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B42" s="1"/>
-      <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B44" s="1"/>
-      <c r="C44" s="11" t="s">
-        <v>10</v>
+      <c r="C44" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
-      <c r="C45" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D30"/>
+  <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1500,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1166,7 +1512,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1178,21 +1524,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1204,21 +1550,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1230,14 +1576,14 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1249,58 +1595,68 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="24" t="s">
-        <v>94</v>
+      <c r="C20" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="24" t="s">
-        <v>95</v>
+      <c r="C21" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="24" t="s">
-        <v>96</v>
+      <c r="C22" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="24" t="s">
-        <v>97</v>
+      <c r="C23" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>1</v>
+      <c r="C27" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1309,15 +1665,33 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-    </row>
+    <row r="29" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1326,169 +1700,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D25"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
-    <col min="4" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="C17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="1"/>
-      <c r="C24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
@@ -1513,7 +1724,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1525,14 +1736,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>35</v>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1544,14 +1755,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1563,7 +1774,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1575,7 +1786,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1587,7 +1798,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1599,14 +1810,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
-        <v>32</v>
+      <c r="C18" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1635,9 +1846,7 @@
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="C24" s="13"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1651,11 +1860,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1676,7 +1885,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1685,36 +1894,36 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="20" t="s">
-        <v>48</v>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1726,7 +1935,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1738,7 +1947,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1747,10 +1956,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="39" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="17" t="s">
-        <v>39</v>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1762,14 +1971,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="19" t="s">
-        <v>40</v>
+      <c r="C18" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1812,12 +2021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +2046,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1846,10 +2055,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="15" t="s">
-        <v>49</v>
+      <c r="C5" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1861,76 +2070,76 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
+      <c r="C18" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1952,14 +2161,14 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1973,12 +2182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2207,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2007,10 +2216,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
+      <c r="C5" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2022,118 +2231,111 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,12 +2343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2368,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2175,10 +2377,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>59</v>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2190,21 +2392,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2216,19 +2418,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2240,19 +2444,19 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2261,33 +2465,45 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,12 +2511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D29"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2536,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2329,10 +2545,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2344,21 +2560,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2376,15 +2592,13 @@
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2396,91 +2610,54 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="39" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>71</v>
-      </c>
+    <row r="19" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="23" t="s">
-        <v>72</v>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B26" s="1"/>
-      <c r="C26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2488,12 +2665,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,7 +2690,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2522,10 +2699,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2537,14 +2714,190 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="C19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+      <c r="C20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D26"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2556,21 +2909,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2582,14 +2935,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2601,7 +2954,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2613,93 +2966,42 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
-        <v>86</v>
-      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="18" t="s">
-        <v>75</v>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="1"/>
+    </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -234,13 +234,16 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Vulnerable]] </t>
+      <t xml:space="preserve">[[Ground]] </t>
     </r>
     <r>
       <rPr>
@@ -249,404 +252,401 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Wind]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Fire]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elemental effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Water]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Damage: 25-35 air ]]</t>
+  </si>
+  <si>
+    <t>Inflicts Ground-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
+  </si>
+  <si>
+    <t>[[Damage:  25-35 ground ]]</t>
+  </si>
+  <si>
+    <t>Summons a ''Stalagmite'' [[5% summoner HP, 0 AP, 0 MP,             75% ground resistence, 75% fire resistence, -25% water resistence, 75% wind resistence, 50% light resistence, 50% dark resistence]]   (1 turn)</t>
+  </si>
+  <si>
+    <t>'Magic Barrier'' (Unwalkable Glyph) (1 turn)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Self targeting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Natural Resistance]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +50 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other target: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Elemental Protection]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase an random element effect of an entity dealing damage to the target of this skill.  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Elemental Backfire]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Consume all the elements effects of the target. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Water]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Ground]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Fire]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Wind]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Slowness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Ground]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Blindness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Wind]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[[Damage: 20 * (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Fire]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) fire]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Exhausted]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Water]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> levels) levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Under-Power]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +10 levels (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Vulnerability]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
       <t>+3 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Ground]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Wind]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Fire]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Water]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Damage: 25-35 air ]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Strengthless]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +10 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t>Inflicts Ground-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
-  </si>
-  <si>
-    <t>[[Damage:  25-35 ground ]]</t>
-  </si>
-  <si>
-    <t>Summons a ''Stalagmite'' [[5% summoner HP, 0 AP, 0 MP,             75% ground resistence, 75% fire resistence, -25% water resistence, 75% wind resistence, 50% light resistence, 50% dark resistence]]   (1 turn)</t>
-  </si>
-  <si>
-    <t>'Magic Barrier'' (Unwalkable Glyph) (1 turn)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Self targeting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Natural Resistance]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +50 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Other target: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Elemental Protection]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase an random element effect of an entity dealing damage to the target of this skill.  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Elemental Backfire]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Consume all the elements effects of the target. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Water]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Ground]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Fire]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Wind]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Laziness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Water]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Slowness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Ground]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Blindness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Wind]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[[Damage: 20 * (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Fire]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) fire]]</t>
     </r>
   </si>
 </sst>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1339,7 @@
     <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -1370,7 +1370,7 @@
     <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1401,7 +1401,7 @@
     <row r="35" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1432,7 +1432,7 @@
     <row r="40" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1479,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1512,7 +1512,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1607,56 +1607,56 @@
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1817,7 +1817,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="24" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1865,7 +1865,7 @@
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,14 +1971,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="18" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2058,7 +2058,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2132,14 +2132,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2622,7 +2622,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2790,14 +2790,14 @@
     <row r="19" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="G20" s="26"/>
@@ -2878,7 +2878,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2966,7 +2966,7 @@
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\5-Elementalist\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien Godbout\Desktop\_MyDev\BattleForVoxturia\GameDesign\Class\_Done\5-Elementalist\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="6-Teleportation " sheetId="6" r:id="rId6"/>
     <sheet name="7-MagicBarrier" sheetId="7" r:id="rId7"/>
     <sheet name="8-ElementalImmunity" sheetId="8" r:id="rId8"/>
-    <sheet name="9-ElementalBackfire" sheetId="9" r:id="rId9"/>
+    <sheet name="9-Ice Age" sheetId="9" r:id="rId9"/>
     <sheet name="10-NaturalDisaster" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>[[MP: 0 ]]</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Pillar</t>
   </si>
   <si>
-    <t>Fire Pillar</t>
-  </si>
-  <si>
-    <t>Water Pillar</t>
-  </si>
-  <si>
     <t>[[AP: 5 ]]</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Inflicts Water-type damage and reduces</t>
   </si>
   <si>
-    <t xml:space="preserve"> resistance in the area of effect.</t>
-  </si>
-  <si>
     <t>Rising Ground</t>
   </si>
   <si>
@@ -161,30 +152,15 @@
     <t>[[Number of turns between two casts: 3 ]]</t>
   </si>
   <si>
-    <t>[[Max effect accumulation: 1 ]]</t>
-  </si>
-  <si>
-    <t>[[Line of sight: Yes ]]</t>
-  </si>
-  <si>
-    <t>[[Range: 0-2 ]]</t>
-  </si>
-  <si>
     <t>[[MP: 2 ]]</t>
   </si>
   <si>
     <t>[[AP: 1 ]]</t>
   </si>
   <si>
-    <t>Protect the caster to elementals-type damage but weaken it from dark and light damage.                                                                              OR                                                                                                          Protect the target from the damage dealt by the caster skills and his "Pillar".</t>
-  </si>
-  <si>
     <t>Elemental Immunity</t>
   </si>
   <si>
-    <t>Elemental Backfire</t>
-  </si>
-  <si>
     <t>[[Area of effect: - Single cell ]]</t>
   </si>
   <si>
@@ -197,45 +173,30 @@
     <t>[[Range: 1-4 ]]</t>
   </si>
   <si>
-    <t>[[Number of cast per turn per target: 1 ]]</t>
-  </si>
-  <si>
     <t>Teleport the caster at the targeted cell.</t>
   </si>
   <si>
     <t>[[Number of turns between two casts: 5 ]]</t>
   </si>
   <si>
-    <t>Summons an unmovable ''Pillar'' on an empty cell that need to be hit whit the Elementalist skills to set his element states.                                                                 The pillar replicate the Elementalist skills and convert the element-type into the pillar type when hit and give elemental effect to damaged entity.                                                                            The caster is not affected by the replication of the skills.                                                                The glyph under the Pillar give elemental effect used by other Elementalist skills.</t>
-  </si>
-  <si>
-    <t>Summons a ''Pillar'' [[50% summoner HP, 0 AP, 0 MP, 0% ground resistence, 0% fire resistence, 0% water resistence, 0% wind resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Ground Pillar</t>
-  </si>
-  <si>
-    <t>Wind Pillar</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[-50% ground resistence, 0% fire resistence,      0% water resistence, 100% wind resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[0% ground resistence, 100% fire resistence,         -50% water resistence, 0% wind resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[0% ground resistence, -50% fire resistence,    100% water resistence, 0% wind resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
-    <t>Pillar resistance: [[100% ground resistence, 0% fire resistence,   100% water resistence, -50% wind resistence, 50% light resistence, 50% dark resistence]]</t>
-  </si>
-  <si>
     <t>[[Damage: 20-30 water ]]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
+    <t>[[Damage: 25-35 air ]]</t>
+  </si>
+  <si>
+    <t>Inflicts Ground-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
+  </si>
+  <si>
+    <t>[[Damage:  25-35 ground ]]</t>
+  </si>
+  <si>
+    <t>Summons a ''Stalagmite'' [[5% summoner HP, 0 AP, 0 MP,             75% ground resistence, 75% fire resistence, -25% water resistence, 75% wind resistence, 50% light resistence, 50% dark resistence]]   (1 turn)</t>
+  </si>
+  <si>
+    <t>'Magic Barrier'' (Unwalkable Glyph) (1 turn)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -243,7 +204,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Ground]] </t>
+      <t>[[Under-Power]]</t>
     </r>
     <r>
       <rPr>
@@ -252,13 +213,10 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+1 level (00 turns)</t>
+      <t xml:space="preserve"> +10 levels (1 turn)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -266,7 +224,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Wind]] </t>
+      <t>[[Heavy]]</t>
     </r>
     <r>
       <rPr>
@@ -275,13 +233,13 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+1 level (00 turns)</t>
+      <t xml:space="preserve"> (00 turns)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
+    <t>Summons a ''Pillar'' [[50% summoner HP, 0 AP, 0 MP, 25% ground resistence, 25% fire resistence, 25% water resistence, 25% wind resistence, 0% light resistence, 0% dark resistence]]</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -289,7 +247,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Fire]] </t>
+      <t xml:space="preserve">[[Void]] </t>
     </r>
     <r>
       <rPr>
@@ -298,78 +256,15 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+1 level (00 turns)</t>
+      <t>+5 levels (00 turns)</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> the Max HP.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Elemental effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Water]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t>[[Damage: 25-35 air ]]</t>
-  </si>
-  <si>
-    <t>Inflicts Ground-type damage and summons Stalagmite on the empty cells for the current turn in the area of effect.</t>
-  </si>
-  <si>
-    <t>[[Damage:  25-35 ground ]]</t>
-  </si>
-  <si>
-    <t>Summons a ''Stalagmite'' [[5% summoner HP, 0 AP, 0 MP,             75% ground resistence, 75% fire resistence, -25% water resistence, 75% wind resistence, 50% light resistence, 50% dark resistence]]   (1 turn)</t>
-  </si>
-  <si>
-    <t>'Magic Barrier'' (Unwalkable Glyph) (1 turn)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Self targeting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Natural Resistance]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +50 levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Other target: </t>
+      <t xml:space="preserve">Allies: </t>
     </r>
     <r>
       <rPr>
@@ -391,7 +286,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Increase an random element effect of an entity dealing damage to the target of this skill.  </t>
+    <t>Protect all allies from the damage dealt by the caster skills and his "Pillar".</t>
+  </si>
+  <si>
+    <t>Summons an unmovable ''Pillar'' on an empty cell                                The pillar replicate the Elementalist skills                                                                           The caster is not affected by the replication of the skills.                                                                The glyph under the Pillar give elemental effect used by other Elementalist skills.</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the MP of evreryone and prevent them to be moved.  </t>
+  </si>
+  <si>
+    <t>[[Area of effect: - All the map ]]</t>
+  </si>
+  <si>
+    <t>[[MP: 3 ]]</t>
   </si>
   <si>
     <r>
@@ -401,7 +311,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Elemental Backfire]]</t>
+      <t>[[Heavy]]</t>
     </r>
     <r>
       <rPr>
@@ -411,65 +321,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Consume all the elements effects of the target. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Water]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Ground]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Fire]]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Wind]]</t>
     </r>
   </si>
   <si>
@@ -489,86 +340,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Ground]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Blindness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Wind]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) levels (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[[Damage: 20 * (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Fire]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> levels) fire]]</t>
+      <t xml:space="preserve"> +10 levels (1 turn)</t>
     </r>
   </si>
   <si>
@@ -593,11 +365,10 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFC00000"/>
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Water]]</t>
+      <t>0 to 5</t>
     </r>
     <r>
       <rPr>
@@ -606,7 +377,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> levels) levels (1 turn)</t>
+      <t>) levels (1 turn)</t>
     </r>
   </si>
   <si>
@@ -617,7 +388,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Under-Power]]</t>
+      <t>[[Blindness]]</t>
     </r>
     <r>
       <rPr>
@@ -626,7 +397,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +10 levels (1 turn)</t>
+      <t xml:space="preserve"> +(0 to 5) levels (1 turn)</t>
     </r>
   </si>
   <si>
@@ -637,7 +408,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Vulnerability]] </t>
+      <t>[[Slowness]]</t>
     </r>
     <r>
       <rPr>
@@ -646,14 +417,17 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+3 levels (1 turn)</t>
+      <t xml:space="preserve">  +(0 to 5) levels (1 turn)</t>
     </r>
+  </si>
+  <si>
+    <t>Randomly reduce the AP, MP and Range of someone.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -784,19 +558,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -804,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -818,7 +579,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,16 +620,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1185,14 +942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1208,7 +965,7 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
@@ -1218,10 +975,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="156" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>57</v>
+      <c r="C5" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1233,14 +990,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1252,21 +1009,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1278,7 +1035,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1290,7 +1047,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1301,173 +1058,50 @@
     </row>
     <row r="18" spans="2:4" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="22" t="s">
-        <v>58</v>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="1"/>
-      <c r="C27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="1"/>
-      <c r="C29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B32" s="1"/>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="1"/>
-      <c r="C34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-      <c r="C35" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="1"/>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" ht="59.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="1"/>
-      <c r="C39" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B40" s="1"/>
-      <c r="C40" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B44" s="1"/>
-      <c r="C44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="1"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="14"/>
+      <c r="D26" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1476,14 +1110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1499,8 +1133,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>52</v>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1511,8 +1145,8 @@
     </row>
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>79</v>
+      <c r="C5" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1524,21 +1158,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1550,21 +1184,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1576,122 +1210,80 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="28" t="s">
-        <v>87</v>
+      <c r="C20" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="27" t="s">
-        <v>80</v>
+      <c r="C21" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="1"/>
-      <c r="C23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="27" t="s">
-        <v>82</v>
+      <c r="C25" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="27" t="s">
-        <v>83</v>
-      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,14 +1292,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1723,8 +1315,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1736,14 +1328,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1755,14 +1347,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1774,7 +1366,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1786,7 +1378,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1798,7 +1390,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1809,15 +1401,15 @@
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="18" t="s">
-        <v>65</v>
+      <c r="C17" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="24" t="s">
-        <v>89</v>
+      <c r="C18" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1846,13 +1438,13 @@
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,14 +1453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1884,8 +1476,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1897,14 +1489,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1916,14 +1508,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1935,7 +1527,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1947,7 +1539,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1959,7 +1551,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1970,15 +1562,15 @@
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="18" t="s">
-        <v>70</v>
+      <c r="C17" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
-        <v>88</v>
+      <c r="C18" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2007,13 +1599,13 @@
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2022,14 +1614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2045,8 +1637,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2057,8 +1649,8 @@
     </row>
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="20" t="s">
-        <v>71</v>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2070,21 +1662,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2096,7 +1688,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2108,7 +1700,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2119,8 +1711,8 @@
     </row>
     <row r="15" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="17" t="s">
-        <v>26</v>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2131,15 +1723,15 @@
     </row>
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="18" t="s">
-        <v>72</v>
+      <c r="C17" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="19" t="s">
-        <v>73</v>
+      <c r="C18" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2168,13 +1760,13 @@
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2183,14 +1775,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2206,8 +1798,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2218,8 +1810,8 @@
     </row>
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
-      <c r="C5" s="15" t="s">
-        <v>32</v>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2231,14 +1823,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2250,21 +1842,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2276,7 +1868,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2288,7 +1880,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2300,7 +1892,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -2329,13 +1921,13 @@
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,14 +1936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2367,8 +1959,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2380,7 +1972,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2392,7 +1984,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -2406,7 +1998,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2418,21 +2010,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2444,7 +2036,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2456,7 +2048,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2468,7 +2060,7 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2497,7 +2089,7 @@
     </row>
     <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -2512,14 +2104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2535,8 +2127,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>38</v>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2547,8 +2139,8 @@
     </row>
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>40</v>
+      <c r="C5" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2560,21 +2152,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2586,7 +2178,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2598,7 +2190,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2610,7 +2202,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2621,8 +2213,8 @@
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="25" t="s">
-        <v>74</v>
+      <c r="C17" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2651,7 +2243,7 @@
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -2666,14 +2258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2689,8 +2281,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2699,10 +2291,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>47</v>
+      <c r="C5" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2714,21 +2306,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2740,21 +2332,19 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2766,74 +2356,55 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="C19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2842,14 +2413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2865,8 +2436,8 @@
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2875,10 +2446,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="16" t="s">
-        <v>77</v>
+      <c r="C5" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2890,118 +2461,111 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="7" t="s">
-        <v>42</v>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
+      <c r="C17" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="C19" s="13"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
+++ b/GameDesign/Class/_Done/5-Elementalist/Documentation/ElementalistSkills.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Pillar" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>[[MP: 0 ]]</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>[[Cast in straight line: No ]]</t>
-  </si>
-  <si>
-    <t>[[Area of effect: - Circle whit 2 cells radius ]] (Elemental Glyph)</t>
   </si>
   <si>
     <t>[[Area of effect: - On each line at 2 and 4 cell of range ]]</t>
@@ -287,9 +284,6 @@
   </si>
   <si>
     <t>Protect all allies from the damage dealt by the caster skills and his "Pillar".</t>
-  </si>
-  <si>
-    <t>Summons an unmovable ''Pillar'' on an empty cell                                The pillar replicate the Elementalist skills                                                                           The caster is not affected by the replication of the skills.                                                                The glyph under the Pillar give elemental effect used by other Elementalist skills.</t>
   </si>
   <si>
     <t>Ice Age</t>
@@ -422,6 +416,9 @@
   </si>
   <si>
     <t>Randomly reduce the AP, MP and Range of someone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summons an unmovable ''Pillar'' on an empty cell                                The pillar replicate the Elementalist skills                                                                           The caster is not affected by the replication of the skills.                                                                </t>
   </si>
 </sst>
 </file>
@@ -945,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,10 +972,10 @@
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="97.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -990,7 +987,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1035,7 +1032,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1047,7 +1044,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1059,14 +1056,14 @@
     <row r="18" spans="2:4" ht="58.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1113,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1134,7 +1131,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1146,7 +1143,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1158,21 +1155,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1210,7 +1207,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1222,7 +1219,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1234,21 +1231,21 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1316,7 +1313,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1328,14 +1325,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1347,14 +1344,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1366,7 +1363,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1378,7 +1375,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1390,7 +1387,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1402,14 +1399,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1477,7 +1474,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1489,14 +1486,14 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1508,14 +1505,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1527,7 +1524,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1539,7 +1536,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1551,7 +1548,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1563,14 +1560,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1638,7 +1635,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1650,7 +1647,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1662,21 +1659,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1688,7 +1685,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1700,7 +1697,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1712,7 +1709,7 @@
     <row r="15" spans="2:4" ht="39" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1724,14 +1721,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1799,7 +1796,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1811,7 +1808,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1823,7 +1820,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1856,7 +1853,7 @@
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1868,7 +1865,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1880,7 +1877,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1892,7 +1889,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1960,7 +1957,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1972,7 +1969,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1984,7 +1981,7 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1998,7 +1995,7 @@
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2036,7 +2033,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2048,7 +2045,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2060,7 +2057,7 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2128,7 +2125,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2140,7 +2137,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2159,14 +2156,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2178,7 +2175,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2190,7 +2187,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2202,7 +2199,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2214,7 +2211,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2282,7 +2279,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2294,7 +2291,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2306,21 +2303,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2332,7 +2329,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2344,7 +2341,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2356,7 +2353,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2368,7 +2365,7 @@
     <row r="17" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1"/>
       <c r="G17" s="24"/>
@@ -2437,7 +2434,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2449,7 +2446,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2468,14 +2465,14 @@
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2487,7 +2484,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2499,7 +2496,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2511,7 +2508,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2523,14 +2520,14 @@
     <row r="17" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1"/>
     </row>
